--- a/Solina/Solcast vs WeatherMap/Production_Forecast_Solina_2024-02-13.xlsx
+++ b/Solina/Solcast vs WeatherMap/Production_Forecast_Solina_2024-02-13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mynexte-my.sharepoint.com/personal/andrei_ionita_mynexte_com/Documents/Desktop/ML/Forecast_app/Solina/Solcast vs WeatherMap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_944F8703EFA11E8F5AD16072E5AB8307BB4FCA34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4E914E1-528D-48DF-A599-DB84CA063B60}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_944F8703EFA11E8F5AD16072E5AB8307BB4FCA34" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB8E3193-4FF2-403D-9A54-73AAF6D961CA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,7 +84,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -391,8 +391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
